--- a/docs/xlsx/annual_prizes.xlsx
+++ b/docs/xlsx/annual_prizes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\mike\projects\work\wsw-results\docs\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAFADFF-4E6B-4F0E-BE47-AAD0A6A42714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5A62B3-4856-4EC6-89FB-75C05A371A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{84F1FE3E-E2FC-4502-A203-F194881F2FAF}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="47">
   <si>
     <t>• Amateur Sailboard Fleet (not First Time, Gold, or Pro) - 1st 2nd 3rd Prizes</t>
   </si>
@@ -152,13 +152,34 @@
   </si>
   <si>
     <t xml:space="preserve">   no "first time boat" since 2017. only 1 eligible but didn't compete</t>
+  </si>
+  <si>
+    <t>Added 2nd + 3rd for kites and boats</t>
+  </si>
+  <si>
+    <t>Removed 2nd + 3rd for boats</t>
+  </si>
+  <si>
+    <t>removed "overall fastest man"</t>
+  </si>
+  <si>
+    <t>removed "most efficient"</t>
+  </si>
+  <si>
+    <t>Removed "first time kite" and "first time boat"</t>
+  </si>
+  <si>
+    <t>Awarded 1st wing</t>
+  </si>
+  <si>
+    <t>n.b. Gold fleet prize includes a shield / trophy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +189,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -207,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -238,6 +267,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B74C1C-948C-4A64-8D41-7ECAF2D7B563}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,13 +814,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -837,7 +872,7 @@
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1018,6 +1053,43 @@
       </c>
       <c r="G18" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
